--- a/biology/Histoire de la zoologie et de la botanique/Fredrik_Adam_Smitt/Fredrik_Adam_Smitt.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Fredrik_Adam_Smitt/Fredrik_Adam_Smitt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fredrik Adam Smitt était un zoologiste suédois, né le 9 mai 1839 à Halmstad dans la province de Halland et décédé le 19 février 1904 à Stockholm.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1855, Smitt se rend à l'Université de Lund pour étudier. Il passe son doctorat à l'Université d'Uppsala en 1863 et y devient maître de conférences en zoologie. En 1871, il devient professeur au Muséum suédois d'histoire naturelle et y est chargé du département des vertébrés. Il enseigne aussi la zoologie à Stockholm à partir de 1879.
 En 1861 et 1868, Smitt accompagne les expéditions suédoises menées aux îles Spitzberg. Entre 1865 et 1867, il réalise des études zoologiques à Copenhague et à Paris. En 1869, il participe aussi comme zoologiste au périple de la frégate Josephine dans l'Océan Atlantique.
